--- a/Data/mappings/ei311/ei_iw_mapping.xlsx
+++ b/Data/mappings/ei311/ei_iw_mapping.xlsx
@@ -8,22 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings\ei311\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE0FC96-E11A-4819-8472-1518FD34FAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC4DA1E-D5C6-4C3F-92F7-93B4693F676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$2262</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$2265</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5567" uniqueCount="2537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5642" uniqueCount="2601">
   <si>
     <t>iw name</t>
   </si>
@@ -7634,6 +7647,198 @@
   </si>
   <si>
     <t>N-Nitrosodimethylamine</t>
+  </si>
+  <si>
+    <t>Bromotrifluoromethane</t>
+  </si>
+  <si>
+    <t>Bromochlorodifluoromethane</t>
+  </si>
+  <si>
+    <t>Carbon, organic, decrease in soil or biomass stock</t>
+  </si>
+  <si>
+    <t>Occupation, forest, used, extensive</t>
+  </si>
+  <si>
+    <t>Occupation, forest, used, intensive</t>
+  </si>
+  <si>
+    <t>Transformation, from forest, used, intensive</t>
+  </si>
+  <si>
+    <t>Transformation, to forest, used, intensive</t>
+  </si>
+  <si>
+    <t>Transformation, from forest, used, extensive</t>
+  </si>
+  <si>
+    <t>Transformation, to forest, used, extensive</t>
+  </si>
+  <si>
+    <t>1,1,2,2-Tetrafluoroethene</t>
+  </si>
+  <si>
+    <t>1,2-Dimethoxyethane</t>
+  </si>
+  <si>
+    <t>2-Ethyl hexyl acrylate</t>
+  </si>
+  <si>
+    <t>2-Ethyl-2-hexenal</t>
+  </si>
+  <si>
+    <t>2-Ethylhexanal</t>
+  </si>
+  <si>
+    <t>2-Ethylhexanol</t>
+  </si>
+  <si>
+    <t>2-Methylbutanal</t>
+  </si>
+  <si>
+    <t>Butatriene</t>
+  </si>
+  <si>
+    <t>Butyraldehyde</t>
+  </si>
+  <si>
+    <t>Calcium acetate</t>
+  </si>
+  <si>
+    <t>Cobalt oxide</t>
+  </si>
+  <si>
+    <t>Cyclopropene</t>
+  </si>
+  <si>
+    <t>Dehydrolinalool</t>
+  </si>
+  <si>
+    <t>Diethyl ketone</t>
+  </si>
+  <si>
+    <t>Ethyl propionate</t>
+  </si>
+  <si>
+    <t>Ethylene glycol dimethyl ether</t>
+  </si>
+  <si>
+    <t>Glycidol</t>
+  </si>
+  <si>
+    <t>Linalool</t>
+  </si>
+  <si>
+    <t>Manganese carbonate</t>
+  </si>
+  <si>
+    <t>Mesityl oxide</t>
+  </si>
+  <si>
+    <t>Methyl isobutyl ketone</t>
+  </si>
+  <si>
+    <t>Methyl isopropyl ketone</t>
+  </si>
+  <si>
+    <t>Methyl propionate</t>
+  </si>
+  <si>
+    <t>Methyl vinyl ether</t>
+  </si>
+  <si>
+    <t>Methyl vinyl ketone</t>
+  </si>
+  <si>
+    <t>Methylbutenol</t>
+  </si>
+  <si>
+    <t>Methylbutynol</t>
+  </si>
+  <si>
+    <t>Methylheptenone</t>
+  </si>
+  <si>
+    <t>Pentanal</t>
+  </si>
+  <si>
+    <t>Potassium acetate</t>
+  </si>
+  <si>
+    <t>Propyl propionate</t>
+  </si>
+  <si>
+    <t>Propylene carbonate</t>
+  </si>
+  <si>
+    <t>Succinonitrile</t>
+  </si>
+  <si>
+    <t>tert-butanol</t>
+  </si>
+  <si>
+    <t>Vinylidene chloride</t>
+  </si>
+  <si>
+    <t>Vinylidene fluoride</t>
+  </si>
+  <si>
+    <t>Perfluoroethylene, PFC-1114</t>
+  </si>
+  <si>
+    <t>2-Ethylhexyl acrylate</t>
+  </si>
+  <si>
+    <t>Hexanol, 2-ethyl-1-</t>
+  </si>
+  <si>
+    <t>Butanal</t>
+  </si>
+  <si>
+    <t>Acetic acid, calcium salt</t>
+  </si>
+  <si>
+    <t>6-Octen-1-yn-3-ol, 3,7-dimethyl-</t>
+  </si>
+  <si>
+    <t>3-Pentanone</t>
+  </si>
+  <si>
+    <t>Propionic acid, ethyl ester</t>
+  </si>
+  <si>
+    <t>Manganese(2+) carbonate</t>
+  </si>
+  <si>
+    <t>4-Methylpent-3-en-2-one</t>
+  </si>
+  <si>
+    <t>2-Butanone, 3-methyl-</t>
+  </si>
+  <si>
+    <t>Propionic acid, methyl ester</t>
+  </si>
+  <si>
+    <t>Methoxyethene</t>
+  </si>
+  <si>
+    <t>Methylvinylketone</t>
+  </si>
+  <si>
+    <t>3-Buten-2-ol, 2-methyl-</t>
+  </si>
+  <si>
+    <t>5-Hepten-2-one, 6-methyl-</t>
+  </si>
+  <si>
+    <t>Carbonic acid, cyclic propylene ester</t>
+  </si>
+  <si>
+    <t>Ethene, 1,1-dichloro-</t>
+  </si>
+  <si>
+    <t>Ethene, 1,1-difluoro-, HFC-1132a</t>
   </si>
 </sst>
 </file>
@@ -8001,16 +8206,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2262"/>
+  <dimension ref="A1:D2302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2236" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2250" sqref="C2250"/>
+    <sheetView tabSelected="1" topLeftCell="A2251" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2274" sqref="A2274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="36.77734375" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16366,7 +16571,7 @@
         <v>1092</v>
       </c>
       <c r="B795" t="s">
-        <v>1563</v>
+        <v>2540</v>
       </c>
       <c r="C795" t="s">
         <v>1568</v>
@@ -16377,7 +16582,7 @@
         <v>1093</v>
       </c>
       <c r="B796" t="s">
-        <v>1563</v>
+        <v>2541</v>
       </c>
       <c r="C796" t="s">
         <v>1568</v>
@@ -20141,7 +20346,7 @@
         <v>1306</v>
       </c>
       <c r="B1160" t="s">
-        <v>1572</v>
+        <v>2544</v>
       </c>
       <c r="C1160" t="s">
         <v>1568</v>
@@ -20152,7 +20357,7 @@
         <v>1307</v>
       </c>
       <c r="B1161" t="s">
-        <v>1572</v>
+        <v>2542</v>
       </c>
       <c r="C1161" t="s">
         <v>1568</v>
@@ -20801,7 +21006,7 @@
         <v>1366</v>
       </c>
       <c r="B1220" t="s">
-        <v>1580</v>
+        <v>2545</v>
       </c>
       <c r="C1220" t="s">
         <v>1568</v>
@@ -20812,7 +21017,7 @@
         <v>1367</v>
       </c>
       <c r="B1221" t="s">
-        <v>1580</v>
+        <v>2543</v>
       </c>
       <c r="C1221" t="s">
         <v>1568</v>
@@ -27605,10 +27810,10 @@
     </row>
     <row r="1883" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1883" t="s">
-        <v>2088</v>
+        <v>2538</v>
       </c>
       <c r="B1883" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1883">
         <v>3.11</v>
@@ -27616,10 +27821,10 @@
     </row>
     <row r="1884" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1884" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B1884" t="s">
-        <v>2089</v>
+        <v>21</v>
       </c>
       <c r="C1884">
         <v>3.11</v>
@@ -27627,10 +27832,10 @@
     </row>
     <row r="1885" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1885" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B1885" t="s">
-        <v>2420</v>
+        <v>2089</v>
       </c>
       <c r="C1885">
         <v>3.11</v>
@@ -27638,10 +27843,10 @@
     </row>
     <row r="1886" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1886" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B1886" t="s">
-        <v>2091</v>
+        <v>2420</v>
       </c>
       <c r="C1886">
         <v>3.11</v>
@@ -27649,10 +27854,10 @@
     </row>
     <row r="1887" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1887" t="s">
-        <v>2092</v>
+        <v>2537</v>
       </c>
       <c r="B1887" t="s">
-        <v>2457</v>
+        <v>23</v>
       </c>
       <c r="C1887">
         <v>3.11</v>
@@ -27660,10 +27865,10 @@
     </row>
     <row r="1888" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1888" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B1888" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C1888">
         <v>3.11</v>
@@ -27671,10 +27876,10 @@
     </row>
     <row r="1889" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1889" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="B1889" t="s">
-        <v>2094</v>
+        <v>2457</v>
       </c>
       <c r="C1889">
         <v>3.11</v>
@@ -27682,10 +27887,10 @@
     </row>
     <row r="1890" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1890" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="B1890" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="C1890">
         <v>3.11</v>
@@ -27693,10 +27898,10 @@
     </row>
     <row r="1891" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1891" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="B1891" t="s">
-        <v>2458</v>
+        <v>2094</v>
       </c>
       <c r="C1891">
         <v>3.11</v>
@@ -27704,10 +27909,10 @@
     </row>
     <row r="1892" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1892" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="B1892" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="C1892">
         <v>3.11</v>
@@ -27715,10 +27920,10 @@
     </row>
     <row r="1893" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1893" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="B1893" t="s">
-        <v>2098</v>
+        <v>2458</v>
       </c>
       <c r="C1893">
         <v>3.11</v>
@@ -27726,10 +27931,10 @@
     </row>
     <row r="1894" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1894" t="s">
-        <v>1969</v>
+        <v>2097</v>
       </c>
       <c r="B1894" t="s">
-        <v>1969</v>
+        <v>2097</v>
       </c>
       <c r="C1894">
         <v>3.11</v>
@@ -27737,10 +27942,10 @@
     </row>
     <row r="1895" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1895" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B1895" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C1895">
         <v>3.11</v>
@@ -27748,10 +27953,10 @@
     </row>
     <row r="1896" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1896" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B1896" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="C1896">
         <v>3.11</v>
@@ -27759,10 +27964,10 @@
     </row>
     <row r="1897" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1897" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B1897" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="C1897">
         <v>3.11</v>
@@ -27770,10 +27975,10 @@
     </row>
     <row r="1898" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1898" t="s">
-        <v>2101</v>
+        <v>1970</v>
       </c>
       <c r="B1898" t="s">
-        <v>2101</v>
+        <v>1970</v>
       </c>
       <c r="C1898">
         <v>3.11</v>
@@ -27781,7 +27986,10 @@
     </row>
     <row r="1899" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1899" t="s">
-        <v>2102</v>
+        <v>2100</v>
+      </c>
+      <c r="B1899" t="s">
+        <v>2100</v>
       </c>
       <c r="C1899">
         <v>3.11</v>
@@ -27789,10 +27997,10 @@
     </row>
     <row r="1900" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1900" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="B1900" t="s">
-        <v>2459</v>
+        <v>2101</v>
       </c>
       <c r="C1900">
         <v>3.11</v>
@@ -27800,7 +28008,7 @@
     </row>
     <row r="1901" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1901" t="s">
-        <v>1971</v>
+        <v>2102</v>
       </c>
       <c r="C1901">
         <v>3.11</v>
@@ -27808,10 +28016,10 @@
     </row>
     <row r="1902" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1902" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B1902" t="s">
-        <v>2104</v>
+        <v>2459</v>
       </c>
       <c r="C1902">
         <v>3.11</v>
@@ -27819,7 +28027,7 @@
     </row>
     <row r="1903" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1903" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="C1903">
         <v>3.11</v>
@@ -27827,10 +28035,10 @@
     </row>
     <row r="1904" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1904" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B1904" t="s">
-        <v>2460</v>
+        <v>2104</v>
       </c>
       <c r="C1904">
         <v>3.11</v>
@@ -27838,7 +28046,7 @@
     </row>
     <row r="1905" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1905" t="s">
-        <v>2106</v>
+        <v>2539</v>
       </c>
       <c r="C1905">
         <v>3.11</v>
@@ -27846,10 +28054,7 @@
     </row>
     <row r="1906" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1906" t="s">
-        <v>2107</v>
-      </c>
-      <c r="B1906" t="s">
-        <v>2107</v>
+        <v>1972</v>
       </c>
       <c r="C1906">
         <v>3.11</v>
@@ -27857,10 +28062,10 @@
     </row>
     <row r="1907" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1907" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="B1907" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="C1907">
         <v>3.11</v>
@@ -27868,10 +28073,7 @@
     </row>
     <row r="1908" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1908" t="s">
-        <v>2109</v>
-      </c>
-      <c r="B1908" t="s">
-        <v>2462</v>
+        <v>2106</v>
       </c>
       <c r="C1908">
         <v>3.11</v>
@@ -27879,10 +28081,10 @@
     </row>
     <row r="1909" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1909" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="B1909" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="C1909">
         <v>3.11</v>
@@ -27890,10 +28092,10 @@
     </row>
     <row r="1910" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1910" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="B1910" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="C1910">
         <v>3.11</v>
@@ -27901,10 +28103,10 @@
     </row>
     <row r="1911" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1911" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="B1911" t="s">
-        <v>2112</v>
+        <v>2462</v>
       </c>
       <c r="C1911">
         <v>3.11</v>
@@ -27912,10 +28114,10 @@
     </row>
     <row r="1912" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1912" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="B1912" t="s">
-        <v>2421</v>
+        <v>2110</v>
       </c>
       <c r="C1912">
         <v>3.11</v>
@@ -27923,10 +28125,10 @@
     </row>
     <row r="1913" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1913" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="B1913" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="C1913">
         <v>3.11</v>
@@ -27934,10 +28136,10 @@
     </row>
     <row r="1914" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1914" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="B1914" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="C1914">
         <v>3.11</v>
@@ -27945,10 +28147,10 @@
     </row>
     <row r="1915" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1915" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="B1915" t="s">
-        <v>2116</v>
+        <v>2421</v>
       </c>
       <c r="C1915">
         <v>3.11</v>
@@ -27956,10 +28158,10 @@
     </row>
     <row r="1916" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1916" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="B1916" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="C1916">
         <v>3.11</v>
@@ -27967,10 +28169,10 @@
     </row>
     <row r="1917" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1917" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="B1917" t="s">
-        <v>2466</v>
+        <v>2115</v>
       </c>
       <c r="C1917">
         <v>3.11</v>
@@ -27978,10 +28180,10 @@
     </row>
     <row r="1918" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1918" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="B1918" t="s">
-        <v>2467</v>
+        <v>2116</v>
       </c>
       <c r="C1918">
         <v>3.11</v>
@@ -27989,10 +28191,10 @@
     </row>
     <row r="1919" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1919" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="B1919" t="s">
-        <v>2120</v>
+        <v>2465</v>
       </c>
       <c r="C1919">
         <v>3.11</v>
@@ -28000,10 +28202,10 @@
     </row>
     <row r="1920" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1920" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="B1920" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="C1920">
         <v>3.11</v>
@@ -28011,7 +28213,10 @@
     </row>
     <row r="1921" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1921" t="s">
-        <v>2122</v>
+        <v>2119</v>
+      </c>
+      <c r="B1921" t="s">
+        <v>2467</v>
       </c>
       <c r="C1921">
         <v>3.11</v>
@@ -28019,10 +28224,10 @@
     </row>
     <row r="1922" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1922" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="B1922" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="C1922">
         <v>3.11</v>
@@ -28030,10 +28235,10 @@
     </row>
     <row r="1923" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1923" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="B1923" t="s">
-        <v>2124</v>
+        <v>2468</v>
       </c>
       <c r="C1923">
         <v>3.11</v>
@@ -28041,10 +28246,7 @@
     </row>
     <row r="1924" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1924" t="s">
-        <v>2125</v>
-      </c>
-      <c r="B1924" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="C1924">
         <v>3.11</v>
@@ -28052,10 +28254,10 @@
     </row>
     <row r="1925" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1925" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="B1925" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="C1925">
         <v>3.11</v>
@@ -28063,10 +28265,10 @@
     </row>
     <row r="1926" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1926" t="s">
-        <v>1973</v>
+        <v>2124</v>
       </c>
       <c r="B1926" t="s">
-        <v>1973</v>
+        <v>2124</v>
       </c>
       <c r="C1926">
         <v>3.11</v>
@@ -28074,10 +28276,10 @@
     </row>
     <row r="1927" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1927" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="B1927" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="C1927">
         <v>3.11</v>
@@ -28085,10 +28287,10 @@
     </row>
     <row r="1928" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1928" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="B1928" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="C1928">
         <v>3.11</v>
@@ -28096,10 +28298,10 @@
     </row>
     <row r="1929" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1929" t="s">
-        <v>2129</v>
+        <v>1973</v>
       </c>
       <c r="B1929" t="s">
-        <v>2129</v>
+        <v>1973</v>
       </c>
       <c r="C1929">
         <v>3.11</v>
@@ -28107,10 +28309,10 @@
     </row>
     <row r="1930" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1930" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="B1930" t="s">
-        <v>2469</v>
+        <v>2127</v>
       </c>
       <c r="C1930">
         <v>3.11</v>
@@ -28118,10 +28320,10 @@
     </row>
     <row r="1931" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1931" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="B1931" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="C1931">
         <v>3.11</v>
@@ -28129,10 +28331,10 @@
     </row>
     <row r="1932" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1932" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="B1932" t="s">
-        <v>2470</v>
+        <v>2129</v>
       </c>
       <c r="C1932">
         <v>3.11</v>
@@ -28140,10 +28342,10 @@
     </row>
     <row r="1933" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1933" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="B1933" t="s">
-        <v>2133</v>
+        <v>2469</v>
       </c>
       <c r="C1933">
         <v>3.11</v>
@@ -28151,10 +28353,10 @@
     </row>
     <row r="1934" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1934" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="B1934" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="C1934">
         <v>3.11</v>
@@ -28162,10 +28364,10 @@
     </row>
     <row r="1935" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1935" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
       <c r="B1935" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="C1935">
         <v>3.11</v>
@@ -28173,10 +28375,10 @@
     </row>
     <row r="1936" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1936" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="B1936" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="C1936">
         <v>3.11</v>
@@ -28184,10 +28386,10 @@
     </row>
     <row r="1937" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1937" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
       <c r="B1937" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
       <c r="C1937">
         <v>3.11</v>
@@ -28195,10 +28397,10 @@
     </row>
     <row r="1938" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1938" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
       <c r="B1938" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="C1938">
         <v>3.11</v>
@@ -28206,7 +28408,10 @@
     </row>
     <row r="1939" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1939" t="s">
-        <v>2139</v>
+        <v>2136</v>
+      </c>
+      <c r="B1939" t="s">
+        <v>2136</v>
       </c>
       <c r="C1939">
         <v>3.11</v>
@@ -28214,7 +28419,10 @@
     </row>
     <row r="1940" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1940" t="s">
-        <v>2140</v>
+        <v>2137</v>
+      </c>
+      <c r="B1940" t="s">
+        <v>2137</v>
       </c>
       <c r="C1940">
         <v>3.11</v>
@@ -28222,10 +28430,10 @@
     </row>
     <row r="1941" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1941" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="B1941" t="s">
-        <v>2141</v>
+        <v>2472</v>
       </c>
       <c r="C1941">
         <v>3.11</v>
@@ -28233,10 +28441,7 @@
     </row>
     <row r="1942" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1942" t="s">
-        <v>2142</v>
-      </c>
-      <c r="B1942" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="C1942">
         <v>3.11</v>
@@ -28244,10 +28449,7 @@
     </row>
     <row r="1943" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1943" t="s">
-        <v>2143</v>
-      </c>
-      <c r="B1943" t="s">
-        <v>2533</v>
+        <v>2140</v>
       </c>
       <c r="C1943">
         <v>3.11</v>
@@ -28255,10 +28457,10 @@
     </row>
     <row r="1944" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1944" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="B1944" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="C1944">
         <v>3.11</v>
@@ -28266,7 +28468,10 @@
     </row>
     <row r="1945" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1945" t="s">
-        <v>2145</v>
+        <v>2142</v>
+      </c>
+      <c r="B1945" t="s">
+        <v>2142</v>
       </c>
       <c r="C1945">
         <v>3.11</v>
@@ -28274,10 +28479,10 @@
     </row>
     <row r="1946" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1946" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="B1946" t="s">
-        <v>2146</v>
+        <v>2533</v>
       </c>
       <c r="C1946">
         <v>3.11</v>
@@ -28285,10 +28490,10 @@
     </row>
     <row r="1947" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1947" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="B1947" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="C1947">
         <v>3.11</v>
@@ -28296,10 +28501,7 @@
     </row>
     <row r="1948" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1948" t="s">
-        <v>2148</v>
-      </c>
-      <c r="B1948" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="C1948">
         <v>3.11</v>
@@ -28307,7 +28509,10 @@
     </row>
     <row r="1949" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1949" t="s">
-        <v>2149</v>
+        <v>2146</v>
+      </c>
+      <c r="B1949" t="s">
+        <v>2146</v>
       </c>
       <c r="C1949">
         <v>3.11</v>
@@ -28315,7 +28520,10 @@
     </row>
     <row r="1950" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1950" t="s">
-        <v>2150</v>
+        <v>2147</v>
+      </c>
+      <c r="B1950" t="s">
+        <v>2147</v>
       </c>
       <c r="C1950">
         <v>3.11</v>
@@ -28323,10 +28531,10 @@
     </row>
     <row r="1951" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1951" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="B1951" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="C1951">
         <v>3.11</v>
@@ -28334,10 +28542,7 @@
     </row>
     <row r="1952" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1952" t="s">
-        <v>2152</v>
-      </c>
-      <c r="B1952" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="C1952">
         <v>3.11</v>
@@ -28345,10 +28550,7 @@
     </row>
     <row r="1953" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1953" t="s">
-        <v>2153</v>
-      </c>
-      <c r="B1953" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="C1953">
         <v>3.11</v>
@@ -28356,7 +28558,10 @@
     </row>
     <row r="1954" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1954" t="s">
-        <v>2154</v>
+        <v>2151</v>
+      </c>
+      <c r="B1954" t="s">
+        <v>2151</v>
       </c>
       <c r="C1954">
         <v>3.11</v>
@@ -28364,10 +28569,10 @@
     </row>
     <row r="1955" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1955" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="B1955" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="C1955">
         <v>3.11</v>
@@ -28375,7 +28580,10 @@
     </row>
     <row r="1956" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1956" t="s">
-        <v>2156</v>
+        <v>2153</v>
+      </c>
+      <c r="B1956" t="s">
+        <v>2153</v>
       </c>
       <c r="C1956">
         <v>3.11</v>
@@ -28383,10 +28591,7 @@
     </row>
     <row r="1957" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1957" t="s">
-        <v>2157</v>
-      </c>
-      <c r="B1957" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="C1957">
         <v>3.11</v>
@@ -28394,10 +28599,10 @@
     </row>
     <row r="1958" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1958" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="B1958" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="C1958">
         <v>3.11</v>
@@ -28405,10 +28610,7 @@
     </row>
     <row r="1959" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1959" t="s">
-        <v>2159</v>
-      </c>
-      <c r="B1959" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="C1959">
         <v>3.11</v>
@@ -28416,10 +28618,10 @@
     </row>
     <row r="1960" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1960" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="B1960" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="C1960">
         <v>3.11</v>
@@ -28427,10 +28629,10 @@
     </row>
     <row r="1961" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1961" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="B1961" t="s">
-        <v>2473</v>
+        <v>2158</v>
       </c>
       <c r="C1961">
         <v>3.11</v>
@@ -28438,10 +28640,10 @@
     </row>
     <row r="1962" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1962" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="B1962" t="s">
-        <v>2422</v>
+        <v>2159</v>
       </c>
       <c r="C1962">
         <v>3.11</v>
@@ -28449,7 +28651,10 @@
     </row>
     <row r="1963" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1963" t="s">
-        <v>2163</v>
+        <v>2160</v>
+      </c>
+      <c r="B1963" t="s">
+        <v>2160</v>
       </c>
       <c r="C1963">
         <v>3.11</v>
@@ -28457,10 +28662,10 @@
     </row>
     <row r="1964" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1964" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="B1964" t="s">
-        <v>2164</v>
+        <v>2473</v>
       </c>
       <c r="C1964">
         <v>3.11</v>
@@ -28468,10 +28673,10 @@
     </row>
     <row r="1965" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1965" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="B1965" t="s">
-        <v>652</v>
+        <v>2422</v>
       </c>
       <c r="C1965">
         <v>3.11</v>
@@ -28479,10 +28684,7 @@
     </row>
     <row r="1966" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1966" t="s">
-        <v>2166</v>
-      </c>
-      <c r="B1966" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="C1966">
         <v>3.11</v>
@@ -28490,10 +28692,10 @@
     </row>
     <row r="1967" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1967" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="B1967" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="C1967">
         <v>3.11</v>
@@ -28501,10 +28703,10 @@
     </row>
     <row r="1968" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1968" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
       <c r="B1968" t="s">
-        <v>2168</v>
+        <v>652</v>
       </c>
       <c r="C1968">
         <v>3.11</v>
@@ -28512,10 +28714,10 @@
     </row>
     <row r="1969" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1969" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="B1969" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="C1969">
         <v>3.11</v>
@@ -28523,10 +28725,10 @@
     </row>
     <row r="1970" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1970" t="s">
-        <v>1974</v>
+        <v>2167</v>
       </c>
       <c r="B1970" t="s">
-        <v>2022</v>
+        <v>2167</v>
       </c>
       <c r="C1970">
         <v>3.11</v>
@@ -28534,10 +28736,10 @@
     </row>
     <row r="1971" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1971" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="B1971" t="s">
-        <v>2474</v>
+        <v>2168</v>
       </c>
       <c r="C1971">
         <v>3.11</v>
@@ -28545,7 +28747,10 @@
     </row>
     <row r="1972" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1972" t="s">
-        <v>2171</v>
+        <v>2169</v>
+      </c>
+      <c r="B1972" t="s">
+        <v>2169</v>
       </c>
       <c r="C1972">
         <v>3.11</v>
@@ -28553,10 +28758,10 @@
     </row>
     <row r="1973" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1973" t="s">
-        <v>2172</v>
+        <v>1974</v>
       </c>
       <c r="B1973" t="s">
-        <v>2172</v>
+        <v>2022</v>
       </c>
       <c r="C1973">
         <v>3.11</v>
@@ -28564,10 +28769,10 @@
     </row>
     <row r="1974" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1974" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="B1974" t="s">
-        <v>2173</v>
+        <v>2474</v>
       </c>
       <c r="C1974">
         <v>3.11</v>
@@ -28575,10 +28780,7 @@
     </row>
     <row r="1975" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1975" t="s">
-        <v>1975</v>
-      </c>
-      <c r="B1975" t="s">
-        <v>1975</v>
+        <v>2171</v>
       </c>
       <c r="C1975">
         <v>3.11</v>
@@ -28586,10 +28788,10 @@
     </row>
     <row r="1976" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1976" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B1976" t="s">
-        <v>2475</v>
+        <v>2172</v>
       </c>
       <c r="C1976">
         <v>3.11</v>
@@ -28597,10 +28799,10 @@
     </row>
     <row r="1977" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1977" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="B1977" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="C1977">
         <v>3.11</v>
@@ -28608,10 +28810,10 @@
     </row>
     <row r="1978" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1978" t="s">
-        <v>2176</v>
+        <v>1975</v>
       </c>
       <c r="B1978" t="s">
-        <v>2176</v>
+        <v>1975</v>
       </c>
       <c r="C1978">
         <v>3.11</v>
@@ -28619,7 +28821,10 @@
     </row>
     <row r="1979" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1979" t="s">
-        <v>2177</v>
+        <v>2174</v>
+      </c>
+      <c r="B1979" t="s">
+        <v>2475</v>
       </c>
       <c r="C1979">
         <v>3.11</v>
@@ -28627,10 +28832,10 @@
     </row>
     <row r="1980" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1980" t="s">
-        <v>1976</v>
+        <v>2175</v>
       </c>
       <c r="B1980" t="s">
-        <v>1976</v>
+        <v>2175</v>
       </c>
       <c r="C1980">
         <v>3.11</v>
@@ -28638,7 +28843,10 @@
     </row>
     <row r="1981" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1981" t="s">
-        <v>1977</v>
+        <v>2176</v>
+      </c>
+      <c r="B1981" t="s">
+        <v>2176</v>
       </c>
       <c r="C1981">
         <v>3.11</v>
@@ -28646,10 +28854,7 @@
     </row>
     <row r="1982" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1982" t="s">
-        <v>2178</v>
-      </c>
-      <c r="B1982" t="s">
-        <v>2476</v>
+        <v>2177</v>
       </c>
       <c r="C1982">
         <v>3.11</v>
@@ -28657,10 +28862,10 @@
     </row>
     <row r="1983" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1983" t="s">
-        <v>2179</v>
+        <v>1976</v>
       </c>
       <c r="B1983" t="s">
-        <v>2179</v>
+        <v>1976</v>
       </c>
       <c r="C1983">
         <v>3.11</v>
@@ -28668,10 +28873,7 @@
     </row>
     <row r="1984" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1984" t="s">
-        <v>2180</v>
-      </c>
-      <c r="B1984" t="s">
-        <v>2180</v>
+        <v>1977</v>
       </c>
       <c r="C1984">
         <v>3.11</v>
@@ -28679,10 +28881,10 @@
     </row>
     <row r="1985" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1985" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
       <c r="B1985" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="C1985">
         <v>3.11</v>
@@ -28690,10 +28892,10 @@
     </row>
     <row r="1986" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1986" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
       <c r="B1986" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
       <c r="C1986">
         <v>3.11</v>
@@ -28701,10 +28903,10 @@
     </row>
     <row r="1987" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1987" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="B1987" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="C1987">
         <v>3.11</v>
@@ -28712,7 +28914,10 @@
     </row>
     <row r="1988" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1988" t="s">
-        <v>2184</v>
+        <v>2181</v>
+      </c>
+      <c r="B1988" t="s">
+        <v>2477</v>
       </c>
       <c r="C1988">
         <v>3.11</v>
@@ -28720,10 +28925,10 @@
     </row>
     <row r="1989" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1989" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
       <c r="B1989" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
       <c r="C1989">
         <v>3.11</v>
@@ -28731,10 +28936,10 @@
     </row>
     <row r="1990" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1990" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="B1990" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="C1990">
         <v>3.11</v>
@@ -28742,10 +28947,7 @@
     </row>
     <row r="1991" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1991" t="s">
-        <v>2187</v>
-      </c>
-      <c r="B1991" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="C1991">
         <v>3.11</v>
@@ -28753,10 +28955,10 @@
     </row>
     <row r="1992" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1992" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="B1992" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="C1992">
         <v>3.11</v>
@@ -28764,10 +28966,10 @@
     </row>
     <row r="1993" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1993" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
       <c r="B1993" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
       <c r="C1993">
         <v>3.11</v>
@@ -28775,10 +28977,10 @@
     </row>
     <row r="1994" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1994" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="B1994" t="s">
-        <v>2478</v>
+        <v>2187</v>
       </c>
       <c r="C1994">
         <v>3.11</v>
@@ -28786,10 +28988,10 @@
     </row>
     <row r="1995" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1995" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="B1995" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="C1995">
         <v>3.11</v>
@@ -28797,10 +28999,10 @@
     </row>
     <row r="1996" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1996" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="B1996" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="C1996">
         <v>3.11</v>
@@ -28808,10 +29010,10 @@
     </row>
     <row r="1997" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1997" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="B1997" t="s">
-        <v>2193</v>
+        <v>2478</v>
       </c>
       <c r="C1997">
         <v>3.11</v>
@@ -28819,10 +29021,10 @@
     </row>
     <row r="1998" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1998" t="s">
-        <v>1978</v>
+        <v>2191</v>
       </c>
       <c r="B1998" t="s">
-        <v>2531</v>
+        <v>2191</v>
       </c>
       <c r="C1998">
         <v>3.11</v>
@@ -28830,10 +29032,10 @@
     </row>
     <row r="1999" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1999" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="B1999" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="C1999">
         <v>3.11</v>
@@ -28841,10 +29043,10 @@
     </row>
     <row r="2000" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2000" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="B2000" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="C2000">
         <v>3.11</v>
@@ -28852,10 +29054,10 @@
     </row>
     <row r="2001" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2001" t="s">
-        <v>2196</v>
+        <v>1978</v>
       </c>
       <c r="B2001" t="s">
-        <v>2196</v>
+        <v>2531</v>
       </c>
       <c r="C2001">
         <v>3.11</v>
@@ -28863,10 +29065,10 @@
     </row>
     <row r="2002" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2002" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="B2002" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="C2002">
         <v>3.11</v>
@@ -28874,10 +29076,10 @@
     </row>
     <row r="2003" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2003" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
       <c r="B2003" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
       <c r="C2003">
         <v>3.11</v>
@@ -28885,10 +29087,10 @@
     </row>
     <row r="2004" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2004" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
       <c r="B2004" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
       <c r="C2004">
         <v>3.11</v>
@@ -28896,10 +29098,10 @@
     </row>
     <row r="2005" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2005" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
       <c r="B2005" t="s">
-        <v>2479</v>
+        <v>2197</v>
       </c>
       <c r="C2005">
         <v>3.11</v>
@@ -28907,10 +29109,10 @@
     </row>
     <row r="2006" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2006" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="B2006" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="C2006">
         <v>3.11</v>
@@ -28918,10 +29120,10 @@
     </row>
     <row r="2007" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2007" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="B2007" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="C2007">
         <v>3.11</v>
@@ -28929,10 +29131,10 @@
     </row>
     <row r="2008" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2008" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
       <c r="B2008" t="s">
-        <v>2203</v>
+        <v>2479</v>
       </c>
       <c r="C2008">
         <v>3.11</v>
@@ -28940,10 +29142,10 @@
     </row>
     <row r="2009" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2009" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="B2009" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="C2009">
         <v>3.11</v>
@@ -28951,10 +29153,10 @@
     </row>
     <row r="2010" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2010" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
       <c r="B2010" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
       <c r="C2010">
         <v>3.11</v>
@@ -28962,10 +29164,10 @@
     </row>
     <row r="2011" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2011" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="B2011" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="C2011">
         <v>3.11</v>
@@ -28973,10 +29175,10 @@
     </row>
     <row r="2012" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2012" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
       <c r="B2012" t="s">
-        <v>2480</v>
+        <v>2204</v>
       </c>
       <c r="C2012">
         <v>3.11</v>
@@ -28984,10 +29186,10 @@
     </row>
     <row r="2013" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2013" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
       <c r="B2013" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
       <c r="C2013">
         <v>3.11</v>
@@ -28995,10 +29197,10 @@
     </row>
     <row r="2014" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2014" t="s">
-        <v>1979</v>
+        <v>2206</v>
       </c>
       <c r="B2014" t="s">
-        <v>1979</v>
+        <v>2206</v>
       </c>
       <c r="C2014">
         <v>3.11</v>
@@ -29006,10 +29208,10 @@
     </row>
     <row r="2015" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2015" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="B2015" t="s">
-        <v>2209</v>
+        <v>2480</v>
       </c>
       <c r="C2015">
         <v>3.11</v>
@@ -29017,10 +29219,10 @@
     </row>
     <row r="2016" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2016" t="s">
-        <v>667</v>
+        <v>2208</v>
       </c>
       <c r="B2016" t="s">
-        <v>667</v>
+        <v>2208</v>
       </c>
       <c r="C2016">
         <v>3.11</v>
@@ -29028,10 +29230,10 @@
     </row>
     <row r="2017" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2017" t="s">
-        <v>2210</v>
+        <v>1979</v>
       </c>
       <c r="B2017" t="s">
-        <v>2210</v>
+        <v>1979</v>
       </c>
       <c r="C2017">
         <v>3.11</v>
@@ -29039,10 +29241,10 @@
     </row>
     <row r="2018" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2018" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="B2018" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="C2018">
         <v>3.11</v>
@@ -29050,10 +29252,10 @@
     </row>
     <row r="2019" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2019" t="s">
-        <v>2212</v>
+        <v>667</v>
       </c>
       <c r="B2019" t="s">
-        <v>2212</v>
+        <v>667</v>
       </c>
       <c r="C2019">
         <v>3.11</v>
@@ -29061,10 +29263,10 @@
     </row>
     <row r="2020" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2020" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="B2020" t="s">
-        <v>2481</v>
+        <v>2210</v>
       </c>
       <c r="C2020">
         <v>3.11</v>
@@ -29072,10 +29274,10 @@
     </row>
     <row r="2021" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2021" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
       <c r="B2021" t="s">
-        <v>2482</v>
+        <v>2211</v>
       </c>
       <c r="C2021">
         <v>3.11</v>
@@ -29083,10 +29285,10 @@
     </row>
     <row r="2022" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2022" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
       <c r="B2022" t="s">
-        <v>2483</v>
+        <v>2212</v>
       </c>
       <c r="C2022">
         <v>3.11</v>
@@ -29094,10 +29296,10 @@
     </row>
     <row r="2023" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2023" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
       <c r="B2023" t="s">
-        <v>2216</v>
+        <v>2481</v>
       </c>
       <c r="C2023">
         <v>3.11</v>
@@ -29105,10 +29307,10 @@
     </row>
     <row r="2024" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2024" t="s">
-        <v>1980</v>
+        <v>2214</v>
       </c>
       <c r="B2024" t="s">
-        <v>1980</v>
+        <v>2482</v>
       </c>
       <c r="C2024">
         <v>3.11</v>
@@ -29116,10 +29318,10 @@
     </row>
     <row r="2025" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2025" t="s">
-        <v>1981</v>
+        <v>2215</v>
       </c>
       <c r="B2025" t="s">
-        <v>1981</v>
+        <v>2483</v>
       </c>
       <c r="C2025">
         <v>3.11</v>
@@ -29127,10 +29329,10 @@
     </row>
     <row r="2026" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2026" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B2026" t="s">
-        <v>2484</v>
+        <v>2216</v>
       </c>
       <c r="C2026">
         <v>3.11</v>
@@ -29138,10 +29340,10 @@
     </row>
     <row r="2027" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2027" t="s">
-        <v>2218</v>
+        <v>1980</v>
       </c>
       <c r="B2027" t="s">
-        <v>2218</v>
+        <v>1980</v>
       </c>
       <c r="C2027">
         <v>3.11</v>
@@ -29149,10 +29351,10 @@
     </row>
     <row r="2028" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2028" t="s">
-        <v>2219</v>
+        <v>1981</v>
       </c>
       <c r="B2028" t="s">
-        <v>2219</v>
+        <v>1981</v>
       </c>
       <c r="C2028">
         <v>3.11</v>
@@ -29160,10 +29362,10 @@
     </row>
     <row r="2029" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2029" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="B2029" t="s">
-        <v>2220</v>
+        <v>2484</v>
       </c>
       <c r="C2029">
         <v>3.11</v>
@@ -29171,10 +29373,10 @@
     </row>
     <row r="2030" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2030" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="B2030" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="C2030">
         <v>3.11</v>
@@ -29182,10 +29384,10 @@
     </row>
     <row r="2031" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2031" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="B2031" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="C2031">
         <v>3.11</v>
@@ -29193,10 +29395,10 @@
     </row>
     <row r="2032" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2032" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="B2032" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="C2032">
         <v>3.11</v>
@@ -29204,10 +29406,10 @@
     </row>
     <row r="2033" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2033" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="B2033" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="C2033">
         <v>3.11</v>
@@ -29215,10 +29417,10 @@
     </row>
     <row r="2034" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2034" t="s">
-        <v>1982</v>
+        <v>2222</v>
       </c>
       <c r="B2034" t="s">
-        <v>2534</v>
+        <v>2222</v>
       </c>
       <c r="C2034">
         <v>3.11</v>
@@ -29226,10 +29428,10 @@
     </row>
     <row r="2035" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2035" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="B2035" t="s">
-        <v>2485</v>
+        <v>2223</v>
       </c>
       <c r="C2035">
         <v>3.11</v>
@@ -29237,10 +29439,10 @@
     </row>
     <row r="2036" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2036" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="B2036" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="C2036">
         <v>3.11</v>
@@ -29248,7 +29450,10 @@
     </row>
     <row r="2037" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2037" t="s">
-        <v>2227</v>
+        <v>1982</v>
+      </c>
+      <c r="B2037" t="s">
+        <v>2534</v>
       </c>
       <c r="C2037">
         <v>3.11</v>
@@ -29256,10 +29461,10 @@
     </row>
     <row r="2038" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2038" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="B2038" t="s">
-        <v>2228</v>
+        <v>2485</v>
       </c>
       <c r="C2038">
         <v>3.11</v>
@@ -29267,10 +29472,10 @@
     </row>
     <row r="2039" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2039" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="B2039" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="C2039">
         <v>3.11</v>
@@ -29278,10 +29483,7 @@
     </row>
     <row r="2040" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2040" t="s">
-        <v>2230</v>
-      </c>
-      <c r="B2040" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="C2040">
         <v>3.11</v>
@@ -29289,10 +29491,10 @@
     </row>
     <row r="2041" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2041" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="B2041" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="C2041">
         <v>3.11</v>
@@ -29300,10 +29502,10 @@
     </row>
     <row r="2042" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2042" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="B2042" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="C2042">
         <v>3.11</v>
@@ -29311,10 +29513,10 @@
     </row>
     <row r="2043" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2043" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="B2043" t="s">
-        <v>2486</v>
+        <v>2230</v>
       </c>
       <c r="C2043">
         <v>3.11</v>
@@ -29322,10 +29524,10 @@
     </row>
     <row r="2044" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2044" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="B2044" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="C2044">
         <v>3.11</v>
@@ -29333,10 +29535,10 @@
     </row>
     <row r="2045" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2045" t="s">
-        <v>1983</v>
+        <v>2232</v>
       </c>
       <c r="B2045" t="s">
-        <v>1983</v>
+        <v>2232</v>
       </c>
       <c r="C2045">
         <v>3.11</v>
@@ -29344,10 +29546,10 @@
     </row>
     <row r="2046" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2046" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="B2046" t="s">
-        <v>2235</v>
+        <v>2486</v>
       </c>
       <c r="C2046">
         <v>3.11</v>
@@ -29355,10 +29557,10 @@
     </row>
     <row r="2047" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2047" t="s">
-        <v>1984</v>
+        <v>2234</v>
       </c>
       <c r="B2047" t="s">
-        <v>1984</v>
+        <v>2234</v>
       </c>
       <c r="C2047">
         <v>3.11</v>
@@ -29366,10 +29568,10 @@
     </row>
     <row r="2048" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2048" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="B2048" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="C2048">
         <v>3.11</v>
@@ -29377,10 +29579,10 @@
     </row>
     <row r="2049" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2049" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B2049" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="C2049">
         <v>3.11</v>
@@ -29388,10 +29590,10 @@
     </row>
     <row r="2050" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2050" t="s">
-        <v>2237</v>
+        <v>1984</v>
       </c>
       <c r="B2050" t="s">
-        <v>2237</v>
+        <v>1984</v>
       </c>
       <c r="C2050">
         <v>3.11</v>
@@ -29399,10 +29601,10 @@
     </row>
     <row r="2051" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2051" t="s">
-        <v>2238</v>
+        <v>1985</v>
       </c>
       <c r="B2051" t="s">
-        <v>2238</v>
+        <v>1985</v>
       </c>
       <c r="C2051">
         <v>3.11</v>
@@ -29410,10 +29612,10 @@
     </row>
     <row r="2052" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2052" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="B2052" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="C2052">
         <v>3.11</v>
@@ -29421,10 +29623,10 @@
     </row>
     <row r="2053" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2053" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="B2053" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="C2053">
         <v>3.11</v>
@@ -29432,10 +29634,10 @@
     </row>
     <row r="2054" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2054" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="B2054" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="C2054">
         <v>3.11</v>
@@ -29443,10 +29645,10 @@
     </row>
     <row r="2055" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2055" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="B2055" t="s">
-        <v>2487</v>
+        <v>2239</v>
       </c>
       <c r="C2055">
         <v>3.11</v>
@@ -29454,10 +29656,10 @@
     </row>
     <row r="2056" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2056" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="B2056" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="C2056">
         <v>3.11</v>
@@ -29465,10 +29667,10 @@
     </row>
     <row r="2057" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2057" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="B2057" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="C2057">
         <v>3.11</v>
@@ -29476,10 +29678,10 @@
     </row>
     <row r="2058" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2058" t="s">
-        <v>1986</v>
+        <v>2242</v>
       </c>
       <c r="B2058" t="s">
-        <v>1986</v>
+        <v>2487</v>
       </c>
       <c r="C2058">
         <v>3.11</v>
@@ -29487,10 +29689,10 @@
     </row>
     <row r="2059" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2059" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="B2059" t="s">
-        <v>2488</v>
+        <v>2243</v>
       </c>
       <c r="C2059">
         <v>3.11</v>
@@ -29498,10 +29700,10 @@
     </row>
     <row r="2060" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2060" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="B2060" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="C2060">
         <v>3.11</v>
@@ -29509,10 +29711,10 @@
     </row>
     <row r="2061" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2061" t="s">
-        <v>2247</v>
+        <v>1986</v>
       </c>
       <c r="B2061" t="s">
-        <v>2489</v>
+        <v>1986</v>
       </c>
       <c r="C2061">
         <v>3.11</v>
@@ -29520,10 +29722,10 @@
     </row>
     <row r="2062" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2062" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
       <c r="B2062" t="s">
-        <v>2248</v>
+        <v>2488</v>
       </c>
       <c r="C2062">
         <v>3.11</v>
@@ -29531,10 +29733,10 @@
     </row>
     <row r="2063" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2063" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
       <c r="B2063" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
       <c r="C2063">
         <v>3.11</v>
@@ -29542,10 +29744,10 @@
     </row>
     <row r="2064" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2064" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
       <c r="B2064" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="C2064">
         <v>3.11</v>
@@ -29553,10 +29755,10 @@
     </row>
     <row r="2065" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2065" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="B2065" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="C2065">
         <v>3.11</v>
@@ -29564,10 +29766,10 @@
     </row>
     <row r="2066" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2066" t="s">
-        <v>1987</v>
+        <v>2249</v>
       </c>
       <c r="B2066" t="s">
-        <v>1987</v>
+        <v>2249</v>
       </c>
       <c r="C2066">
         <v>3.11</v>
@@ -29575,10 +29777,10 @@
     </row>
     <row r="2067" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2067" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="B2067" t="s">
-        <v>2252</v>
+        <v>2490</v>
       </c>
       <c r="C2067">
         <v>3.11</v>
@@ -29586,10 +29788,10 @@
     </row>
     <row r="2068" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2068" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="B2068" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="C2068">
         <v>3.11</v>
@@ -29597,10 +29799,10 @@
     </row>
     <row r="2069" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2069" t="s">
-        <v>2254</v>
+        <v>1987</v>
       </c>
       <c r="B2069" t="s">
-        <v>2254</v>
+        <v>1987</v>
       </c>
       <c r="C2069">
         <v>3.11</v>
@@ -29608,10 +29810,10 @@
     </row>
     <row r="2070" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2070" t="s">
-        <v>1988</v>
+        <v>2252</v>
       </c>
       <c r="B2070" t="s">
-        <v>2023</v>
+        <v>2252</v>
       </c>
       <c r="C2070">
         <v>3.11</v>
@@ -29619,10 +29821,10 @@
     </row>
     <row r="2071" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2071" t="s">
-        <v>1989</v>
+        <v>2253</v>
       </c>
       <c r="B2071" t="s">
-        <v>2024</v>
+        <v>2253</v>
       </c>
       <c r="C2071">
         <v>3.11</v>
@@ -29630,10 +29832,10 @@
     </row>
     <row r="2072" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2072" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B2072" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="C2072">
         <v>3.11</v>
@@ -29641,10 +29843,10 @@
     </row>
     <row r="2073" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2073" t="s">
-        <v>2256</v>
+        <v>1988</v>
       </c>
       <c r="B2073" t="s">
-        <v>2424</v>
+        <v>2023</v>
       </c>
       <c r="C2073">
         <v>3.11</v>
@@ -29652,10 +29854,10 @@
     </row>
     <row r="2074" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2074" t="s">
-        <v>2257</v>
+        <v>1989</v>
       </c>
       <c r="B2074" t="s">
-        <v>2257</v>
+        <v>2024</v>
       </c>
       <c r="C2074">
         <v>3.11</v>
@@ -29663,10 +29865,10 @@
     </row>
     <row r="2075" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2075" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
       <c r="B2075" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
       <c r="C2075">
         <v>3.11</v>
@@ -29674,7 +29876,10 @@
     </row>
     <row r="2076" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2076" t="s">
-        <v>2259</v>
+        <v>2256</v>
+      </c>
+      <c r="B2076" t="s">
+        <v>2424</v>
       </c>
       <c r="C2076">
         <v>3.11</v>
@@ -29682,10 +29887,10 @@
     </row>
     <row r="2077" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2077" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="B2077" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="C2077">
         <v>3.11</v>
@@ -29693,10 +29898,10 @@
     </row>
     <row r="2078" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2078" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="B2078" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="C2078">
         <v>3.11</v>
@@ -29704,10 +29909,7 @@
     </row>
     <row r="2079" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2079" t="s">
-        <v>2262</v>
-      </c>
-      <c r="B2079" t="s">
-        <v>2491</v>
+        <v>2259</v>
       </c>
       <c r="C2079">
         <v>3.11</v>
@@ -29715,7 +29917,10 @@
     </row>
     <row r="2080" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2080" t="s">
-        <v>2263</v>
+        <v>2260</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>2260</v>
       </c>
       <c r="C2080">
         <v>3.11</v>
@@ -29723,10 +29928,10 @@
     </row>
     <row r="2081" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2081" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="B2081" t="s">
-        <v>2492</v>
+        <v>2261</v>
       </c>
       <c r="C2081">
         <v>3.11</v>
@@ -29734,10 +29939,10 @@
     </row>
     <row r="2082" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2082" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
       <c r="B2082" t="s">
-        <v>2265</v>
+        <v>2491</v>
       </c>
       <c r="C2082">
         <v>3.11</v>
@@ -29745,10 +29950,7 @@
     </row>
     <row r="2083" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2083" t="s">
-        <v>2266</v>
-      </c>
-      <c r="B2083" t="s">
-        <v>2425</v>
+        <v>2263</v>
       </c>
       <c r="C2083">
         <v>3.11</v>
@@ -29756,10 +29958,10 @@
     </row>
     <row r="2084" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2084" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="B2084" t="s">
-        <v>2267</v>
+        <v>2492</v>
       </c>
       <c r="C2084">
         <v>3.11</v>
@@ -29767,10 +29969,10 @@
     </row>
     <row r="2085" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2085" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="B2085" t="s">
-        <v>2493</v>
+        <v>2265</v>
       </c>
       <c r="C2085">
         <v>3.11</v>
@@ -29778,10 +29980,10 @@
     </row>
     <row r="2086" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2086" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="B2086" t="s">
-        <v>2269</v>
+        <v>2425</v>
       </c>
       <c r="C2086">
         <v>3.11</v>
@@ -29789,10 +29991,10 @@
     </row>
     <row r="2087" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2087" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
       <c r="B2087" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
       <c r="C2087">
         <v>3.11</v>
@@ -29800,10 +30002,10 @@
     </row>
     <row r="2088" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2088" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="B2088" t="s">
-        <v>2271</v>
+        <v>2493</v>
       </c>
       <c r="C2088">
         <v>3.11</v>
@@ -29811,10 +30013,10 @@
     </row>
     <row r="2089" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2089" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="B2089" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="C2089">
         <v>3.11</v>
@@ -29822,10 +30024,10 @@
     </row>
     <row r="2090" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2090" t="s">
-        <v>1990</v>
+        <v>2270</v>
       </c>
       <c r="B2090" t="s">
-        <v>2025</v>
+        <v>2270</v>
       </c>
       <c r="C2090">
         <v>3.11</v>
@@ -29833,10 +30035,10 @@
     </row>
     <row r="2091" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2091" t="s">
-        <v>1991</v>
+        <v>2271</v>
       </c>
       <c r="B2091" t="s">
-        <v>2026</v>
+        <v>2271</v>
       </c>
       <c r="C2091">
         <v>3.11</v>
@@ -29844,10 +30046,10 @@
     </row>
     <row r="2092" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2092" t="s">
-        <v>1992</v>
+        <v>2272</v>
       </c>
       <c r="B2092" t="s">
-        <v>1992</v>
+        <v>2272</v>
       </c>
       <c r="C2092">
         <v>3.11</v>
@@ -29855,7 +30057,10 @@
     </row>
     <row r="2093" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2093" t="s">
-        <v>1993</v>
+        <v>1990</v>
+      </c>
+      <c r="B2093" t="s">
+        <v>2025</v>
       </c>
       <c r="C2093">
         <v>3.11</v>
@@ -29863,10 +30068,10 @@
     </row>
     <row r="2094" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2094" t="s">
-        <v>2273</v>
+        <v>1991</v>
       </c>
       <c r="B2094" t="s">
-        <v>2273</v>
+        <v>2026</v>
       </c>
       <c r="C2094">
         <v>3.11</v>
@@ -29874,10 +30079,10 @@
     </row>
     <row r="2095" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2095" t="s">
-        <v>2274</v>
+        <v>1992</v>
       </c>
       <c r="B2095" t="s">
-        <v>2274</v>
+        <v>1992</v>
       </c>
       <c r="C2095">
         <v>3.11</v>
@@ -29885,10 +30090,7 @@
     </row>
     <row r="2096" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2096" t="s">
-        <v>2275</v>
-      </c>
-      <c r="B2096" t="s">
-        <v>2426</v>
+        <v>1993</v>
       </c>
       <c r="C2096">
         <v>3.11</v>
@@ -29896,10 +30098,10 @@
     </row>
     <row r="2097" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2097" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="B2097" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="C2097">
         <v>3.11</v>
@@ -29907,10 +30109,10 @@
     </row>
     <row r="2098" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2098" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="B2098" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="C2098">
         <v>3.11</v>
@@ -29918,10 +30120,10 @@
     </row>
     <row r="2099" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2099" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="B2099" t="s">
-        <v>2278</v>
+        <v>2426</v>
       </c>
       <c r="C2099">
         <v>3.11</v>
@@ -29929,10 +30131,10 @@
     </row>
     <row r="2100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2100" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="B2100" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="C2100">
         <v>3.11</v>
@@ -29940,7 +30142,10 @@
     </row>
     <row r="2101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2101" t="s">
-        <v>1994</v>
+        <v>2277</v>
+      </c>
+      <c r="B2101" t="s">
+        <v>2277</v>
       </c>
       <c r="C2101">
         <v>3.11</v>
@@ -29948,10 +30153,10 @@
     </row>
     <row r="2102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2102" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="B2102" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="C2102">
         <v>3.11</v>
@@ -29959,10 +30164,10 @@
     </row>
     <row r="2103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2103" t="s">
-        <v>1995</v>
+        <v>2279</v>
       </c>
       <c r="B2103" t="s">
-        <v>1995</v>
+        <v>2279</v>
       </c>
       <c r="C2103">
         <v>3.11</v>
@@ -29970,10 +30175,7 @@
     </row>
     <row r="2104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2104" t="s">
-        <v>2281</v>
-      </c>
-      <c r="B2104" t="s">
-        <v>2281</v>
+        <v>1994</v>
       </c>
       <c r="C2104">
         <v>3.11</v>
@@ -29981,10 +30183,10 @@
     </row>
     <row r="2105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2105" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="B2105" t="s">
-        <v>2494</v>
+        <v>2280</v>
       </c>
       <c r="C2105">
         <v>3.11</v>
@@ -29992,10 +30194,10 @@
     </row>
     <row r="2106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2106" t="s">
-        <v>2283</v>
+        <v>1995</v>
       </c>
       <c r="B2106" t="s">
-        <v>2283</v>
+        <v>1995</v>
       </c>
       <c r="C2106">
         <v>3.11</v>
@@ -30003,10 +30205,10 @@
     </row>
     <row r="2107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2107" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
       <c r="B2107" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
       <c r="C2107">
         <v>3.11</v>
@@ -30014,10 +30216,10 @@
     </row>
     <row r="2108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2108" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
       <c r="B2108" t="s">
-        <v>2285</v>
+        <v>2494</v>
       </c>
       <c r="C2108">
         <v>3.11</v>
@@ -30025,10 +30227,10 @@
     </row>
     <row r="2109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2109" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="B2109" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="C2109">
         <v>3.11</v>
@@ -30036,10 +30238,10 @@
     </row>
     <row r="2110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2110" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="B2110" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="C2110">
         <v>3.11</v>
@@ -30047,10 +30249,10 @@
     </row>
     <row r="2111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2111" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="B2111" t="s">
-        <v>2495</v>
+        <v>2285</v>
       </c>
       <c r="C2111">
         <v>3.11</v>
@@ -30058,7 +30260,10 @@
     </row>
     <row r="2112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2112" t="s">
-        <v>1996</v>
+        <v>2286</v>
+      </c>
+      <c r="B2112" t="s">
+        <v>2286</v>
       </c>
       <c r="C2112">
         <v>3.11</v>
@@ -30066,10 +30271,10 @@
     </row>
     <row r="2113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2113" t="s">
-        <v>1997</v>
+        <v>2287</v>
       </c>
       <c r="B2113" t="s">
-        <v>1997</v>
+        <v>2287</v>
       </c>
       <c r="C2113">
         <v>3.11</v>
@@ -30077,10 +30282,10 @@
     </row>
     <row r="2114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2114" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="B2114" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="C2114">
         <v>3.11</v>
@@ -30088,10 +30293,7 @@
     </row>
     <row r="2115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2115" t="s">
-        <v>2290</v>
-      </c>
-      <c r="B2115" t="s">
-        <v>2290</v>
+        <v>1996</v>
       </c>
       <c r="C2115">
         <v>3.11</v>
@@ -30099,10 +30301,10 @@
     </row>
     <row r="2116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2116" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B2116" t="s">
-        <v>2027</v>
+        <v>1997</v>
       </c>
       <c r="C2116">
         <v>3.11</v>
@@ -30110,10 +30312,10 @@
     </row>
     <row r="2117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2117" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="B2117" t="s">
-        <v>2291</v>
+        <v>2496</v>
       </c>
       <c r="C2117">
         <v>3.11</v>
@@ -30121,10 +30323,10 @@
     </row>
     <row r="2118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2118" t="s">
-        <v>1999</v>
+        <v>2290</v>
       </c>
       <c r="B2118" t="s">
-        <v>1999</v>
+        <v>2290</v>
       </c>
       <c r="C2118">
         <v>3.11</v>
@@ -30132,10 +30334,10 @@
     </row>
     <row r="2119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2119" t="s">
-        <v>2292</v>
+        <v>1998</v>
       </c>
       <c r="B2119" t="s">
-        <v>2497</v>
+        <v>2027</v>
       </c>
       <c r="C2119">
         <v>3.11</v>
@@ -30143,10 +30345,10 @@
     </row>
     <row r="2120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2120" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="B2120" t="s">
-        <v>2498</v>
+        <v>2291</v>
       </c>
       <c r="C2120">
         <v>3.11</v>
@@ -30154,10 +30356,10 @@
     </row>
     <row r="2121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2121" t="s">
-        <v>2294</v>
+        <v>1999</v>
       </c>
       <c r="B2121" t="s">
-        <v>2499</v>
+        <v>1999</v>
       </c>
       <c r="C2121">
         <v>3.11</v>
@@ -30165,10 +30367,10 @@
     </row>
     <row r="2122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2122" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="B2122" t="s">
-        <v>2295</v>
+        <v>2497</v>
       </c>
       <c r="C2122">
         <v>3.11</v>
@@ -30176,10 +30378,10 @@
     </row>
     <row r="2123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2123" t="s">
-        <v>2000</v>
+        <v>2293</v>
       </c>
       <c r="B2123" t="s">
-        <v>2000</v>
+        <v>2498</v>
       </c>
       <c r="C2123">
         <v>3.11</v>
@@ -30187,7 +30389,10 @@
     </row>
     <row r="2124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2124" t="s">
-        <v>2296</v>
+        <v>2294</v>
+      </c>
+      <c r="B2124" t="s">
+        <v>2499</v>
       </c>
       <c r="C2124">
         <v>3.11</v>
@@ -30195,10 +30400,10 @@
     </row>
     <row r="2125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2125" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="B2125" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="C2125">
         <v>3.11</v>
@@ -30206,10 +30411,10 @@
     </row>
     <row r="2126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2126" t="s">
-        <v>2298</v>
+        <v>2000</v>
       </c>
       <c r="B2126" t="s">
-        <v>2298</v>
+        <v>2000</v>
       </c>
       <c r="C2126">
         <v>3.11</v>
@@ -30217,10 +30422,7 @@
     </row>
     <row r="2127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2127" t="s">
-        <v>2299</v>
-      </c>
-      <c r="B2127" t="s">
-        <v>2500</v>
+        <v>2296</v>
       </c>
       <c r="C2127">
         <v>3.11</v>
@@ -30228,10 +30430,10 @@
     </row>
     <row r="2128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2128" t="s">
-        <v>2001</v>
+        <v>2297</v>
       </c>
       <c r="B2128" t="s">
-        <v>2028</v>
+        <v>2297</v>
       </c>
       <c r="C2128">
         <v>3.11</v>
@@ -30239,10 +30441,10 @@
     </row>
     <row r="2129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2129" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="B2129" t="s">
-        <v>2501</v>
+        <v>2298</v>
       </c>
       <c r="C2129">
         <v>3.11</v>
@@ -30250,10 +30452,10 @@
     </row>
     <row r="2130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2130" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="B2130" t="s">
-        <v>2301</v>
+        <v>2500</v>
       </c>
       <c r="C2130">
         <v>3.11</v>
@@ -30261,10 +30463,10 @@
     </row>
     <row r="2131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2131" t="s">
-        <v>2302</v>
+        <v>2001</v>
       </c>
       <c r="B2131" t="s">
-        <v>2302</v>
+        <v>2028</v>
       </c>
       <c r="C2131">
         <v>3.11</v>
@@ -30272,10 +30474,10 @@
     </row>
     <row r="2132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2132" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="B2132" t="s">
-        <v>2303</v>
+        <v>2501</v>
       </c>
       <c r="C2132">
         <v>3.11</v>
@@ -30283,10 +30485,10 @@
     </row>
     <row r="2133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2133" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="B2133" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="C2133">
         <v>3.11</v>
@@ -30294,10 +30496,10 @@
     </row>
     <row r="2134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2134" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="B2134" t="s">
-        <v>2502</v>
+        <v>2302</v>
       </c>
       <c r="C2134">
         <v>3.11</v>
@@ -30305,10 +30507,10 @@
     </row>
     <row r="2135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2135" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="B2135" t="s">
-        <v>2536</v>
+        <v>2303</v>
       </c>
       <c r="C2135">
         <v>3.11</v>
@@ -30316,10 +30518,10 @@
     </row>
     <row r="2136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2136" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="B2136" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="C2136">
         <v>3.11</v>
@@ -30327,7 +30529,10 @@
     </row>
     <row r="2137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2137" t="s">
-        <v>2308</v>
+        <v>2305</v>
+      </c>
+      <c r="B2137" t="s">
+        <v>2502</v>
       </c>
       <c r="C2137">
         <v>3.11</v>
@@ -30335,10 +30540,10 @@
     </row>
     <row r="2138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2138" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
       <c r="B2138" t="s">
-        <v>2309</v>
+        <v>2536</v>
       </c>
       <c r="C2138">
         <v>3.11</v>
@@ -30346,10 +30551,10 @@
     </row>
     <row r="2139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2139" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="B2139" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="C2139">
         <v>3.11</v>
@@ -30357,10 +30562,7 @@
     </row>
     <row r="2140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2140" t="s">
-        <v>2311</v>
-      </c>
-      <c r="B2140" t="s">
-        <v>2503</v>
+        <v>2308</v>
       </c>
       <c r="C2140">
         <v>3.11</v>
@@ -30368,10 +30570,10 @@
     </row>
     <row r="2141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2141" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
       <c r="B2141" t="s">
-        <v>2427</v>
+        <v>2309</v>
       </c>
       <c r="C2141">
         <v>3.11</v>
@@ -30379,10 +30581,10 @@
     </row>
     <row r="2142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2142" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="B2142" t="s">
-        <v>2504</v>
+        <v>2309</v>
       </c>
       <c r="C2142">
         <v>3.11</v>
@@ -30390,10 +30592,10 @@
     </row>
     <row r="2143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2143" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="B2143" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="C2143">
         <v>3.11</v>
@@ -30401,10 +30603,10 @@
     </row>
     <row r="2144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2144" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="B2144" t="s">
-        <v>2315</v>
+        <v>2427</v>
       </c>
       <c r="C2144">
         <v>3.11</v>
@@ -30412,10 +30614,10 @@
     </row>
     <row r="2145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2145" t="s">
-        <v>2002</v>
+        <v>2313</v>
       </c>
       <c r="B2145" t="s">
-        <v>2002</v>
+        <v>2504</v>
       </c>
       <c r="C2145">
         <v>3.11</v>
@@ -30423,10 +30625,10 @@
     </row>
     <row r="2146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2146" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="B2146" t="s">
-        <v>2316</v>
+        <v>2505</v>
       </c>
       <c r="C2146">
         <v>3.11</v>
@@ -30434,10 +30636,10 @@
     </row>
     <row r="2147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2147" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="B2147" t="s">
-        <v>2506</v>
+        <v>2315</v>
       </c>
       <c r="C2147">
         <v>3.11</v>
@@ -30445,7 +30647,10 @@
     </row>
     <row r="2148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2148" t="s">
-        <v>2318</v>
+        <v>2002</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>2002</v>
       </c>
       <c r="C2148">
         <v>3.11</v>
@@ -30453,7 +30658,10 @@
     </row>
     <row r="2149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2149" t="s">
-        <v>2319</v>
+        <v>2316</v>
+      </c>
+      <c r="B2149" t="s">
+        <v>2316</v>
       </c>
       <c r="C2149">
         <v>3.11</v>
@@ -30461,10 +30669,10 @@
     </row>
     <row r="2150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2150" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="B2150" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="C2150">
         <v>3.11</v>
@@ -30472,10 +30680,7 @@
     </row>
     <row r="2151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2151" t="s">
-        <v>2321</v>
-      </c>
-      <c r="B2151" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="C2151">
         <v>3.11</v>
@@ -30483,10 +30688,7 @@
     </row>
     <row r="2152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2152" t="s">
-        <v>2322</v>
-      </c>
-      <c r="B2152" t="s">
-        <v>2508</v>
+        <v>2319</v>
       </c>
       <c r="C2152">
         <v>3.11</v>
@@ -30494,10 +30696,10 @@
     </row>
     <row r="2153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2153" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="B2153" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="C2153">
         <v>3.11</v>
@@ -30505,10 +30707,10 @@
     </row>
     <row r="2154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2154" t="s">
-        <v>2003</v>
+        <v>2321</v>
       </c>
       <c r="B2154" t="s">
-        <v>2003</v>
+        <v>2321</v>
       </c>
       <c r="C2154">
         <v>3.11</v>
@@ -30516,10 +30718,10 @@
     </row>
     <row r="2155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2155" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="B2155" t="s">
-        <v>2324</v>
+        <v>2508</v>
       </c>
       <c r="C2155">
         <v>3.11</v>
@@ -30527,10 +30729,10 @@
     </row>
     <row r="2156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2156" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="B2156" t="s">
-        <v>2325</v>
+        <v>2509</v>
       </c>
       <c r="C2156">
         <v>3.11</v>
@@ -30538,10 +30740,10 @@
     </row>
     <row r="2157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2157" t="s">
-        <v>2326</v>
+        <v>2003</v>
       </c>
       <c r="B2157" t="s">
-        <v>2326</v>
+        <v>2003</v>
       </c>
       <c r="C2157">
         <v>3.11</v>
@@ -30549,10 +30751,10 @@
     </row>
     <row r="2158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2158" t="s">
-        <v>2004</v>
+        <v>2324</v>
       </c>
       <c r="B2158" t="s">
-        <v>2004</v>
+        <v>2324</v>
       </c>
       <c r="C2158">
         <v>3.11</v>
@@ -30560,10 +30762,10 @@
     </row>
     <row r="2159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2159" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="B2159" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="C2159">
         <v>3.11</v>
@@ -30571,10 +30773,10 @@
     </row>
     <row r="2160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2160" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="B2160" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="C2160">
         <v>3.11</v>
@@ -30582,7 +30784,10 @@
     </row>
     <row r="2161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2161" t="s">
-        <v>2005</v>
+        <v>2004</v>
+      </c>
+      <c r="B2161" t="s">
+        <v>2004</v>
       </c>
       <c r="C2161">
         <v>3.11</v>
@@ -30590,10 +30795,10 @@
     </row>
     <row r="2162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2162" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="B2162" t="s">
-        <v>2510</v>
+        <v>2327</v>
       </c>
       <c r="C2162">
         <v>3.11</v>
@@ -30601,10 +30806,10 @@
     </row>
     <row r="2163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2163" t="s">
-        <v>2006</v>
+        <v>2328</v>
       </c>
       <c r="B2163" t="s">
-        <v>2006</v>
+        <v>2328</v>
       </c>
       <c r="C2163">
         <v>3.11</v>
@@ -30612,10 +30817,7 @@
     </row>
     <row r="2164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2164" t="s">
-        <v>2330</v>
-      </c>
-      <c r="B2164" t="s">
-        <v>2511</v>
+        <v>2005</v>
       </c>
       <c r="C2164">
         <v>3.11</v>
@@ -30623,10 +30825,10 @@
     </row>
     <row r="2165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2165" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="B2165" t="s">
-        <v>2331</v>
+        <v>2510</v>
       </c>
       <c r="C2165">
         <v>3.11</v>
@@ -30634,10 +30836,10 @@
     </row>
     <row r="2166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2166" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B2166" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C2166">
         <v>3.11</v>
@@ -30645,10 +30847,10 @@
     </row>
     <row r="2167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2167" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="B2167" t="s">
-        <v>2332</v>
+        <v>2511</v>
       </c>
       <c r="C2167">
         <v>3.11</v>
@@ -30656,10 +30858,10 @@
     </row>
     <row r="2168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2168" t="s">
-        <v>2008</v>
+        <v>2331</v>
       </c>
       <c r="B2168" t="s">
-        <v>2008</v>
+        <v>2331</v>
       </c>
       <c r="C2168">
         <v>3.11</v>
@@ -30667,10 +30869,10 @@
     </row>
     <row r="2169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2169" t="s">
-        <v>2333</v>
+        <v>2007</v>
       </c>
       <c r="B2169" t="s">
-        <v>2333</v>
+        <v>2007</v>
       </c>
       <c r="C2169">
         <v>3.11</v>
@@ -30678,10 +30880,10 @@
     </row>
     <row r="2170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2170" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="B2170" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="C2170">
         <v>3.11</v>
@@ -30689,10 +30891,10 @@
     </row>
     <row r="2171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2171" t="s">
-        <v>2335</v>
+        <v>2008</v>
       </c>
       <c r="B2171" t="s">
-        <v>2335</v>
+        <v>2008</v>
       </c>
       <c r="C2171">
         <v>3.11</v>
@@ -30700,10 +30902,10 @@
     </row>
     <row r="2172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2172" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="B2172" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="C2172">
         <v>3.11</v>
@@ -30711,10 +30913,10 @@
     </row>
     <row r="2173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2173" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="B2173" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="C2173">
         <v>3.11</v>
@@ -30722,10 +30924,10 @@
     </row>
     <row r="2174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2174" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="B2174" t="s">
-        <v>2512</v>
+        <v>2335</v>
       </c>
       <c r="C2174">
         <v>3.11</v>
@@ -30733,10 +30935,10 @@
     </row>
     <row r="2175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2175" t="s">
-        <v>2009</v>
+        <v>2336</v>
       </c>
       <c r="B2175" t="s">
-        <v>2535</v>
+        <v>2336</v>
       </c>
       <c r="C2175">
         <v>3.11</v>
@@ -30744,10 +30946,10 @@
     </row>
     <row r="2176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2176" t="s">
-        <v>2010</v>
+        <v>2337</v>
       </c>
       <c r="B2176" t="s">
-        <v>2010</v>
+        <v>2337</v>
       </c>
       <c r="C2176">
         <v>3.11</v>
@@ -30755,7 +30957,10 @@
     </row>
     <row r="2177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2177" t="s">
-        <v>2339</v>
+        <v>2338</v>
+      </c>
+      <c r="B2177" t="s">
+        <v>2512</v>
       </c>
       <c r="C2177">
         <v>3.11</v>
@@ -30763,10 +30968,10 @@
     </row>
     <row r="2178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2178" t="s">
-        <v>2340</v>
+        <v>2009</v>
       </c>
       <c r="B2178" t="s">
-        <v>2340</v>
+        <v>2535</v>
       </c>
       <c r="C2178">
         <v>3.11</v>
@@ -30774,10 +30979,10 @@
     </row>
     <row r="2179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2179" t="s">
-        <v>2341</v>
+        <v>2010</v>
       </c>
       <c r="B2179" t="s">
-        <v>2341</v>
+        <v>2010</v>
       </c>
       <c r="C2179">
         <v>3.11</v>
@@ -30785,10 +30990,7 @@
     </row>
     <row r="2180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2180" t="s">
-        <v>2342</v>
-      </c>
-      <c r="B2180" t="s">
-        <v>2513</v>
+        <v>2339</v>
       </c>
       <c r="C2180">
         <v>3.11</v>
@@ -30796,10 +30998,10 @@
     </row>
     <row r="2181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2181" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="B2181" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="C2181">
         <v>3.11</v>
@@ -30807,10 +31009,10 @@
     </row>
     <row r="2182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2182" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="B2182" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="C2182">
         <v>3.11</v>
@@ -30818,10 +31020,10 @@
     </row>
     <row r="2183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2183" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="B2183" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="C2183">
         <v>3.11</v>
@@ -30829,10 +31031,10 @@
     </row>
     <row r="2184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2184" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="B2184" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="C2184">
         <v>3.11</v>
@@ -30840,10 +31042,10 @@
     </row>
     <row r="2185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2185" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="B2185" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="C2185">
         <v>3.11</v>
@@ -30851,10 +31053,10 @@
     </row>
     <row r="2186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2186" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="B2186" t="s">
-        <v>2348</v>
+        <v>2514</v>
       </c>
       <c r="C2186">
         <v>3.11</v>
@@ -30862,10 +31064,10 @@
     </row>
     <row r="2187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2187" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="B2187" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="C2187">
         <v>3.11</v>
@@ -30873,10 +31075,10 @@
     </row>
     <row r="2188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2188" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="B2188" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="C2188">
         <v>3.11</v>
@@ -30884,10 +31086,10 @@
     </row>
     <row r="2189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2189" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="B2189" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="C2189">
         <v>3.11</v>
@@ -30895,10 +31097,10 @@
     </row>
     <row r="2190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2190" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="B2190" t="s">
-        <v>2515</v>
+        <v>2349</v>
       </c>
       <c r="C2190">
         <v>3.11</v>
@@ -30906,10 +31108,10 @@
     </row>
     <row r="2191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2191" t="s">
-        <v>2011</v>
+        <v>2350</v>
       </c>
       <c r="B2191" t="s">
-        <v>2532</v>
+        <v>2350</v>
       </c>
       <c r="C2191">
         <v>3.11</v>
@@ -30917,10 +31119,10 @@
     </row>
     <row r="2192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2192" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="B2192" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="C2192">
         <v>3.11</v>
@@ -30928,7 +31130,10 @@
     </row>
     <row r="2193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2193" t="s">
-        <v>2354</v>
+        <v>2352</v>
+      </c>
+      <c r="B2193" t="s">
+        <v>2515</v>
       </c>
       <c r="C2193">
         <v>3.11</v>
@@ -30936,10 +31141,10 @@
     </row>
     <row r="2194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2194" t="s">
-        <v>2355</v>
+        <v>2011</v>
       </c>
       <c r="B2194" t="s">
-        <v>2355</v>
+        <v>2532</v>
       </c>
       <c r="C2194">
         <v>3.11</v>
@@ -30947,10 +31152,10 @@
     </row>
     <row r="2195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2195" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="B2195" t="s">
-        <v>2428</v>
+        <v>2353</v>
       </c>
       <c r="C2195">
         <v>3.11</v>
@@ -30958,10 +31163,7 @@
     </row>
     <row r="2196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2196" t="s">
-        <v>2357</v>
-      </c>
-      <c r="B2196" t="s">
-        <v>411</v>
+        <v>2354</v>
       </c>
       <c r="C2196">
         <v>3.11</v>
@@ -30969,10 +31171,10 @@
     </row>
     <row r="2197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2197" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="B2197" t="s">
-        <v>412</v>
+        <v>2355</v>
       </c>
       <c r="C2197">
         <v>3.11</v>
@@ -30980,10 +31182,10 @@
     </row>
     <row r="2198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2198" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="B2198" t="s">
-        <v>2359</v>
+        <v>2428</v>
       </c>
       <c r="C2198">
         <v>3.11</v>
@@ -30991,7 +31193,10 @@
     </row>
     <row r="2199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2199" t="s">
-        <v>2360</v>
+        <v>2357</v>
+      </c>
+      <c r="B2199" t="s">
+        <v>411</v>
       </c>
       <c r="C2199">
         <v>3.11</v>
@@ -30999,10 +31204,10 @@
     </row>
     <row r="2200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2200" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="B2200" t="s">
-        <v>2361</v>
+        <v>412</v>
       </c>
       <c r="C2200">
         <v>3.11</v>
@@ -31010,10 +31215,10 @@
     </row>
     <row r="2201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2201" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="B2201" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="C2201">
         <v>3.11</v>
@@ -31021,10 +31226,7 @@
     </row>
     <row r="2202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2202" t="s">
-        <v>2363</v>
-      </c>
-      <c r="B2202" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="C2202">
         <v>3.11</v>
@@ -31032,10 +31234,10 @@
     </row>
     <row r="2203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2203" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="B2203" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="C2203">
         <v>3.11</v>
@@ -31043,10 +31245,10 @@
     </row>
     <row r="2204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2204" t="s">
-        <v>2012</v>
+        <v>2362</v>
       </c>
       <c r="B2204" t="s">
-        <v>2012</v>
+        <v>2362</v>
       </c>
       <c r="C2204">
         <v>3.11</v>
@@ -31054,10 +31256,10 @@
     </row>
     <row r="2205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2205" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="B2205" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="C2205">
         <v>3.11</v>
@@ -31065,7 +31267,10 @@
     </row>
     <row r="2206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2206" t="s">
-        <v>2366</v>
+        <v>2364</v>
+      </c>
+      <c r="B2206" t="s">
+        <v>2364</v>
       </c>
       <c r="C2206">
         <v>3.11</v>
@@ -31073,10 +31278,10 @@
     </row>
     <row r="2207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2207" t="s">
-        <v>2367</v>
+        <v>2012</v>
       </c>
       <c r="B2207" t="s">
-        <v>2367</v>
+        <v>2012</v>
       </c>
       <c r="C2207">
         <v>3.11</v>
@@ -31084,10 +31289,10 @@
     </row>
     <row r="2208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2208" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="B2208" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="C2208">
         <v>3.11</v>
@@ -31095,10 +31300,7 @@
     </row>
     <row r="2209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2209" t="s">
-        <v>2369</v>
-      </c>
-      <c r="B2209" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="C2209">
         <v>3.11</v>
@@ -31106,10 +31308,10 @@
     </row>
     <row r="2210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2210" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="B2210" t="s">
-        <v>2516</v>
+        <v>2367</v>
       </c>
       <c r="C2210">
         <v>3.11</v>
@@ -31117,10 +31319,10 @@
     </row>
     <row r="2211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2211" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="B2211" t="s">
-        <v>2517</v>
+        <v>2368</v>
       </c>
       <c r="C2211">
         <v>3.11</v>
@@ -31128,10 +31330,10 @@
     </row>
     <row r="2212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2212" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="B2212" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="C2212">
         <v>3.11</v>
@@ -31139,7 +31341,10 @@
     </row>
     <row r="2213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2213" t="s">
-        <v>2373</v>
+        <v>2370</v>
+      </c>
+      <c r="B2213" t="s">
+        <v>2516</v>
       </c>
       <c r="C2213">
         <v>3.11</v>
@@ -31147,10 +31352,10 @@
     </row>
     <row r="2214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2214" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="B2214" t="s">
-        <v>2374</v>
+        <v>2517</v>
       </c>
       <c r="C2214">
         <v>3.11</v>
@@ -31158,10 +31363,10 @@
     </row>
     <row r="2215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2215" t="s">
-        <v>2013</v>
+        <v>2372</v>
       </c>
       <c r="B2215" t="s">
-        <v>2013</v>
+        <v>2372</v>
       </c>
       <c r="C2215">
         <v>3.11</v>
@@ -31169,10 +31374,7 @@
     </row>
     <row r="2216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2216" t="s">
-        <v>2014</v>
-      </c>
-      <c r="B2216" t="s">
-        <v>2014</v>
+        <v>2373</v>
       </c>
       <c r="C2216">
         <v>3.11</v>
@@ -31180,10 +31382,10 @@
     </row>
     <row r="2217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2217" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B2217" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="C2217">
         <v>3.11</v>
@@ -31191,10 +31393,10 @@
     </row>
     <row r="2218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2218" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B2218" t="s">
-        <v>2029</v>
+        <v>2013</v>
       </c>
       <c r="C2218">
         <v>3.11</v>
@@ -31202,10 +31404,10 @@
     </row>
     <row r="2219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2219" t="s">
-        <v>2376</v>
+        <v>2014</v>
       </c>
       <c r="B2219" t="s">
-        <v>2376</v>
+        <v>2014</v>
       </c>
       <c r="C2219">
         <v>3.11</v>
@@ -31213,10 +31415,10 @@
     </row>
     <row r="2220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2220" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="B2220" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="C2220">
         <v>3.11</v>
@@ -31224,10 +31426,10 @@
     </row>
     <row r="2221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2221" t="s">
-        <v>2378</v>
+        <v>2015</v>
       </c>
       <c r="B2221" t="s">
-        <v>2378</v>
+        <v>2029</v>
       </c>
       <c r="C2221">
         <v>3.11</v>
@@ -31235,10 +31437,10 @@
     </row>
     <row r="2222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2222" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="B2222" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="C2222">
         <v>3.11</v>
@@ -31246,10 +31448,10 @@
     </row>
     <row r="2223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2223" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="B2223" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="C2223">
         <v>3.11</v>
@@ -31257,10 +31459,10 @@
     </row>
     <row r="2224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2224" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="B2224" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="C2224">
         <v>3.11</v>
@@ -31268,10 +31470,10 @@
     </row>
     <row r="2225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2225" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="B2225" t="s">
-        <v>2518</v>
+        <v>2379</v>
       </c>
       <c r="C2225">
         <v>3.11</v>
@@ -31279,10 +31481,10 @@
     </row>
     <row r="2226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2226" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="B2226" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="C2226">
         <v>3.11</v>
@@ -31290,10 +31492,10 @@
     </row>
     <row r="2227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2227" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="B2227" t="s">
-        <v>2519</v>
+        <v>2381</v>
       </c>
       <c r="C2227">
         <v>3.11</v>
@@ -31301,10 +31503,10 @@
     </row>
     <row r="2228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2228" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="B2228" t="s">
-        <v>2385</v>
+        <v>2518</v>
       </c>
       <c r="C2228">
         <v>3.11</v>
@@ -31312,10 +31514,10 @@
     </row>
     <row r="2229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2229" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="B2229" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="C2229">
         <v>3.11</v>
@@ -31323,10 +31525,10 @@
     </row>
     <row r="2230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2230" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="B2230" t="s">
-        <v>2387</v>
+        <v>2519</v>
       </c>
       <c r="C2230">
         <v>3.11</v>
@@ -31334,10 +31536,10 @@
     </row>
     <row r="2231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2231" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="B2231" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="C2231">
         <v>3.11</v>
@@ -31345,10 +31547,10 @@
     </row>
     <row r="2232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2232" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="B2232" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="C2232">
         <v>3.11</v>
@@ -31356,10 +31558,10 @@
     </row>
     <row r="2233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2233" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="B2233" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="C2233">
         <v>3.11</v>
@@ -31367,10 +31569,10 @@
     </row>
     <row r="2234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2234" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="B2234" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="C2234">
         <v>3.11</v>
@@ -31378,10 +31580,10 @@
     </row>
     <row r="2235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2235" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="B2235" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="C2235">
         <v>3.11</v>
@@ -31389,10 +31591,10 @@
     </row>
     <row r="2236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2236" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="B2236" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="C2236">
         <v>3.11</v>
@@ -31400,10 +31602,10 @@
     </row>
     <row r="2237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2237" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="B2237" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="C2237">
         <v>3.11</v>
@@ -31411,10 +31613,10 @@
     </row>
     <row r="2238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2238" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="B2238" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="C2238">
         <v>3.11</v>
@@ -31422,10 +31624,10 @@
     </row>
     <row r="2239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2239" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="B2239" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="C2239">
         <v>3.11</v>
@@ -31433,10 +31635,10 @@
     </row>
     <row r="2240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2240" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="B2240" t="s">
-        <v>2520</v>
+        <v>2394</v>
       </c>
       <c r="C2240">
         <v>3.11</v>
@@ -31444,10 +31646,10 @@
     </row>
     <row r="2241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2241" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="B2241" t="s">
-        <v>2429</v>
+        <v>2395</v>
       </c>
       <c r="C2241">
         <v>3.11</v>
@@ -31455,10 +31657,10 @@
     </row>
     <row r="2242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2242" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="B2242" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="C2242">
         <v>3.11</v>
@@ -31466,10 +31668,10 @@
     </row>
     <row r="2243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2243" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="B2243" t="s">
-        <v>2400</v>
+        <v>2520</v>
       </c>
       <c r="C2243">
         <v>3.11</v>
@@ -31477,10 +31679,10 @@
     </row>
     <row r="2244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2244" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="B2244" t="s">
-        <v>2521</v>
+        <v>2429</v>
       </c>
       <c r="C2244">
         <v>3.11</v>
@@ -31488,10 +31690,10 @@
     </row>
     <row r="2245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2245" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="B2245" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="C2245">
         <v>3.11</v>
@@ -31499,10 +31701,10 @@
     </row>
     <row r="2246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2246" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="B2246" t="s">
-        <v>2526</v>
+        <v>2400</v>
       </c>
       <c r="C2246">
         <v>3.11</v>
@@ -31510,10 +31712,10 @@
     </row>
     <row r="2247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2247" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="B2247" t="s">
-        <v>1557</v>
+        <v>2521</v>
       </c>
       <c r="C2247">
         <v>3.11</v>
@@ -31521,10 +31723,10 @@
     </row>
     <row r="2248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2248" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="B2248" t="s">
-        <v>2522</v>
+        <v>2402</v>
       </c>
       <c r="C2248">
         <v>3.11</v>
@@ -31532,10 +31734,10 @@
     </row>
     <row r="2249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2249" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="B2249" t="s">
-        <v>2406</v>
+        <v>2526</v>
       </c>
       <c r="C2249">
         <v>3.11</v>
@@ -31543,10 +31745,10 @@
     </row>
     <row r="2250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2250" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
       <c r="B2250" t="s">
-        <v>2523</v>
+        <v>1557</v>
       </c>
       <c r="C2250">
         <v>3.11</v>
@@ -31554,10 +31756,10 @@
     </row>
     <row r="2251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2251" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="B2251" t="s">
-        <v>2408</v>
+        <v>2522</v>
       </c>
       <c r="C2251">
         <v>3.11</v>
@@ -31565,10 +31767,10 @@
     </row>
     <row r="2252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2252" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="B2252" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="C2252">
         <v>3.11</v>
@@ -31576,10 +31778,10 @@
     </row>
     <row r="2253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2253" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="B2253" t="s">
-        <v>2410</v>
+        <v>2523</v>
       </c>
       <c r="C2253">
         <v>3.11</v>
@@ -31587,10 +31789,10 @@
     </row>
     <row r="2254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2254" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
       <c r="B2254" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
       <c r="C2254">
         <v>3.11</v>
@@ -31598,7 +31800,10 @@
     </row>
     <row r="2255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2255" t="s">
-        <v>2412</v>
+        <v>2409</v>
+      </c>
+      <c r="B2255" t="s">
+        <v>2409</v>
       </c>
       <c r="C2255">
         <v>3.11</v>
@@ -31606,10 +31811,10 @@
     </row>
     <row r="2256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2256" t="s">
-        <v>2016</v>
+        <v>2410</v>
       </c>
       <c r="B2256" t="s">
-        <v>2016</v>
+        <v>2410</v>
       </c>
       <c r="C2256">
         <v>3.11</v>
@@ -31617,7 +31822,10 @@
     </row>
     <row r="2257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2257" t="s">
-        <v>2413</v>
+        <v>2411</v>
+      </c>
+      <c r="B2257" t="s">
+        <v>2411</v>
       </c>
       <c r="C2257">
         <v>3.11</v>
@@ -31625,10 +31833,7 @@
     </row>
     <row r="2258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2258" t="s">
-        <v>2414</v>
-      </c>
-      <c r="B2258" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="C2258">
         <v>3.11</v>
@@ -31636,10 +31841,10 @@
     </row>
     <row r="2259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2259" t="s">
-        <v>2415</v>
+        <v>2016</v>
       </c>
       <c r="B2259" t="s">
-        <v>2415</v>
+        <v>2016</v>
       </c>
       <c r="C2259">
         <v>3.11</v>
@@ -31647,7 +31852,7 @@
     </row>
     <row r="2260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2260" t="s">
-        <v>2017</v>
+        <v>2413</v>
       </c>
       <c r="C2260">
         <v>3.11</v>
@@ -31655,7 +31860,10 @@
     </row>
     <row r="2261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2261" t="s">
-        <v>2416</v>
+        <v>2414</v>
+      </c>
+      <c r="B2261" t="s">
+        <v>2414</v>
       </c>
       <c r="C2261">
         <v>3.11</v>
@@ -31663,17 +31871,439 @@
     </row>
     <row r="2262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2262" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B2262" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C2262">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2263" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C2263">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2264" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C2264">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2265" t="s">
         <v>2417</v>
       </c>
-      <c r="B2262" t="s">
+      <c r="B2265" t="s">
         <v>2524</v>
       </c>
-      <c r="C2262">
-        <v>3.11</v>
+      <c r="C2265">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2266" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B2266" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C2266">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2267" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B2267" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C2267">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2268" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B2268" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C2268">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2269" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B2269" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C2269">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2270" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B2270" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C2270">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2271" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B2271" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C2271">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2272" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B2272" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C2272">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2273" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B2273" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C2273">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2274" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C2274">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2275" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B2275" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C2275">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2276" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B2276" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C2276">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2277" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B2277" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2277">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2278" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C2278">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2279" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C2279">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2280" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C2280">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2281" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C2281">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2282" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B2282" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C2282">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2283" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B2283" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C2283">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2284" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C2284">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2285" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C2285">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2286" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C2286">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2287" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2287">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2288" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>2592</v>
+      </c>
+      <c r="C2288">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2289" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B2289" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C2289">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2290" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B2290" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C2290">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2291" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B2291" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C2291">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2292" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B2292" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C2292">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2293" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C2293">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2294" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B2294" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C2294">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2295" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C2295">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2296" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B2296" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C2296">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2297" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C2297">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2298" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B2298" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C2298">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2299" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B2299" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C2299">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2300" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B2300" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C2300">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2301" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B2301" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C2301">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2302" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B2302" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C2302">
+        <v>3.12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D2262" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D2265" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1719:D1810">
     <sortCondition ref="A1719:A1810"/>
   </sortState>
